--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>736887.7417914738</v>
+        <v>734186.0938889392</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74.9929849293728</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
@@ -707,16 +707,16 @@
         <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>68.11693918766136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>92.73964154763148</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>179.989625354099</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>34.10833718734072</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>87.54426226814995</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.87073484362677</v>
+        <v>185.1421734110669</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
         <v>137.5750138932992</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>169.1770560616879</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>134.3807354218354</v>
       </c>
     </row>
     <row r="7">
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>31.00074821930685</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>250.7831302631783</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>141.2473539394131</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.830884450382</v>
+        <v>11.830884450382</v>
       </c>
       <c r="H8" t="n">
-        <v>303.918686916365</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.62727429151394</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.8978127731749</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0679046626562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>331.9122689548701</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1212,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3.964052731988655</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4859120069138</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>94.29488917436606</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.34503645282952</v>
+        <v>30.34503645282959</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.1789700647269</v>
       </c>
       <c r="T9" t="n">
         <v>192.6772763323794</v>
@@ -1272,13 +1272,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>170.520511770004</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3.70348846326913</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.433625596421</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8761692930954</v>
+        <v>196.8761692930955</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340827876525</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>123.5039456545013</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,19 +1373,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>154.4185687627989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>307.6000736915378</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
         <v>24.14662204184546</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927372</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>15.11544022900662</v>
+        <v>79.81330679905234</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>17.53779970793413</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740336</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>253.2918698186446</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819392</v>
       </c>
       <c r="C19" t="n">
-        <v>113.841542230105</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>193.9507379795585</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.787132650396</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>108.9065924712593</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456775</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>260.4394343112832</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699811</v>
       </c>
       <c r="E28" t="n">
-        <v>47.88058113793331</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>115.7063133373705</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716015</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>167.3637267182072</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701333</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987833667</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>179.2499669408055</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>83.06560892428122</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833812</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3743,10 +3743,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>108.9065924712584</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4034,7 +4034,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,16 +4135,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>19.91555826189063</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>596.4915365985767</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="C2" t="n">
-        <v>407.0717515820917</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="D2" t="n">
-        <v>407.0717515820917</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="E2" t="n">
-        <v>217.6519665656067</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912182</v>
+        <v>28.23218154912181</v>
       </c>
       <c r="G2" t="n">
         <v>15.0020469733056</v>
@@ -4328,52 +4328,52 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058979</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262259</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262259</v>
+        <v>603.4370373477799</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262259</v>
+        <v>603.4370373477799</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262259</v>
+        <v>414.017252331295</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262259</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262259</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="X2" t="n">
-        <v>672.2420264262259</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="Y2" t="n">
-        <v>672.2420264262259</v>
+        <v>224.5974673148102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>189.4550762544326</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
         <v>15.0020469733056</v>
@@ -4410,49 +4410,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546602</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652803</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652803</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487954</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="U3" t="n">
-        <v>378.8748612709176</v>
+        <v>487.5180226099435</v>
       </c>
       <c r="V3" t="n">
-        <v>378.8748612709176</v>
+        <v>298.0982375934586</v>
       </c>
       <c r="W3" t="n">
-        <v>378.8748612709176</v>
+        <v>298.0982375934586</v>
       </c>
       <c r="X3" t="n">
-        <v>189.4550762544326</v>
+        <v>108.6784525769738</v>
       </c>
       <c r="Y3" t="n">
-        <v>189.4550762544326</v>
+        <v>108.6784525769738</v>
       </c>
     </row>
     <row r="4">
@@ -4492,31 +4492,31 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.0396705623018</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
         <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396344</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910431</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910431</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U4" t="n">
         <v>15.0020469733056</v>
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1310.09075811159</v>
+        <v>1396.118167241172</v>
       </c>
       <c r="C5" t="n">
-        <v>941.1282411711782</v>
+        <v>1027.15565030076</v>
       </c>
       <c r="D5" t="n">
-        <v>852.6996934255721</v>
+        <v>1027.15565030076</v>
       </c>
       <c r="E5" t="n">
-        <v>852.6996934255721</v>
+        <v>641.3673977025157</v>
       </c>
       <c r="F5" t="n">
-        <v>441.7137886359646</v>
+        <v>230.3814929129082</v>
       </c>
       <c r="G5" t="n">
-        <v>429.7231473797759</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I5" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O5" t="n">
         <v>1761.960612545596</v>
@@ -4598,19 +4598,19 @@
         <v>2036.325171642784</v>
       </c>
       <c r="U5" t="n">
-        <v>2036.325171642784</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="V5" t="n">
-        <v>2036.325171642784</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="W5" t="n">
-        <v>1683.55651637267</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="X5" t="n">
-        <v>1310.09075811159</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="Y5" t="n">
-        <v>1310.09075811159</v>
+        <v>1782.718007305293</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>630.1971149768078</v>
+        <v>339.4826453284327</v>
       </c>
       <c r="C6" t="n">
-        <v>630.1971149768078</v>
+        <v>339.4826453284327</v>
       </c>
       <c r="D6" t="n">
-        <v>481.2627053155565</v>
+        <v>339.4826453284327</v>
       </c>
       <c r="E6" t="n">
-        <v>322.025250310101</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="F6" t="n">
-        <v>175.490692336986</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G6" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H6" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I6" t="n">
         <v>43.36919653809306</v>
@@ -4668,28 +4668,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R6" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S6" t="n">
-        <v>1627.262386835205</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T6" t="n">
-        <v>1432.552065309181</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U6" t="n">
-        <v>1204.450475442445</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V6" t="n">
-        <v>969.2983672107021</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W6" t="n">
-        <v>798.4124519968759</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X6" t="n">
-        <v>798.4124519968759</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="Y6" t="n">
-        <v>798.4124519968759</v>
+        <v>339.4826453284327</v>
       </c>
     </row>
     <row r="7">
@@ -4726,7 +4726,7 @@
         <v>43.36919653809306</v>
       </c>
       <c r="K7" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981523</v>
       </c>
       <c r="L7" t="n">
         <v>185.7706748018941</v>
@@ -4744,16 +4744,16 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q7" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R7" t="n">
-        <v>520.2893470405991</v>
+        <v>466.1525394612431</v>
       </c>
       <c r="S7" t="n">
-        <v>520.2893470405991</v>
+        <v>266.9730538454695</v>
       </c>
       <c r="T7" t="n">
-        <v>296.6854897332227</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="U7" t="n">
         <v>43.36919653809306</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1529.016639564186</v>
+        <v>867.8663960526409</v>
       </c>
       <c r="C8" t="n">
-        <v>1160.054122623775</v>
+        <v>498.9038791122292</v>
       </c>
       <c r="D8" t="n">
-        <v>1160.054122623775</v>
+        <v>140.6381805054787</v>
       </c>
       <c r="E8" t="n">
-        <v>774.2658700255304</v>
+        <v>140.6381805054787</v>
       </c>
       <c r="F8" t="n">
-        <v>767.3203692763269</v>
+        <v>133.6926797562752</v>
       </c>
       <c r="G8" t="n">
-        <v>351.3295769022037</v>
+        <v>121.742291422556</v>
       </c>
       <c r="H8" t="n">
-        <v>44.34100425941066</v>
+        <v>121.742291422556</v>
       </c>
       <c r="I8" t="n">
-        <v>44.34100425941066</v>
+        <v>44.34100425941061</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8280559420296</v>
+        <v>156.8280559420293</v>
       </c>
       <c r="K8" t="n">
-        <v>376.1555054002242</v>
+        <v>376.1555054002236</v>
       </c>
       <c r="L8" t="n">
-        <v>685.1523625707939</v>
+        <v>685.152362570793</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.64034093755</v>
+        <v>1060.640340937549</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.817915733709</v>
+        <v>1446.817915733707</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.13918765951</v>
+        <v>1798.139187659508</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.482764284335</v>
+        <v>2063.482764284333</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.571993228518</v>
+        <v>2214.571993228516</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.050212970533</v>
+        <v>2217.050212970531</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.050212970533</v>
+        <v>2217.050212970531</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.050212970533</v>
+        <v>2007.052422290556</v>
       </c>
       <c r="U8" t="n">
-        <v>2217.050212970533</v>
+        <v>1753.448478186863</v>
       </c>
       <c r="V8" t="n">
-        <v>2217.050212970533</v>
+        <v>1753.448478186863</v>
       </c>
       <c r="W8" t="n">
-        <v>1864.281557700419</v>
+        <v>1400.679822916749</v>
       </c>
       <c r="X8" t="n">
-        <v>1864.281557700419</v>
+        <v>1400.679822916749</v>
       </c>
       <c r="Y8" t="n">
-        <v>1529.016639564186</v>
+        <v>1010.540490940937</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>731.1492462742626</v>
+        <v>302.8299157359315</v>
       </c>
       <c r="C9" t="n">
-        <v>731.1492462742626</v>
+        <v>298.8258220672561</v>
       </c>
       <c r="D9" t="n">
-        <v>582.2148366130114</v>
+        <v>298.8258220672561</v>
       </c>
       <c r="E9" t="n">
-        <v>422.9773816075558</v>
+        <v>139.5883670618006</v>
       </c>
       <c r="F9" t="n">
-        <v>276.4428236344408</v>
+        <v>139.5883670618006</v>
       </c>
       <c r="G9" t="n">
         <v>139.5883670618006</v>
       </c>
       <c r="H9" t="n">
-        <v>44.34100425941066</v>
+        <v>44.34100425941061</v>
       </c>
       <c r="I9" t="n">
-        <v>44.34100425941066</v>
+        <v>44.34100425941061</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113519</v>
+        <v>92.51967467113502</v>
       </c>
       <c r="K9" t="n">
-        <v>253.0195209154164</v>
+        <v>253.0195209154161</v>
       </c>
       <c r="L9" t="n">
-        <v>515.1539122572545</v>
+        <v>515.1539122572541</v>
       </c>
       <c r="M9" t="n">
-        <v>840.4092510449742</v>
+        <v>840.4092510449734</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.681775738686</v>
+        <v>1188.681775738685</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.063300074214</v>
+        <v>1485.063300074213</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.602536566944</v>
+        <v>1703.602536566943</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.771032257641</v>
+        <v>1799.77103225764</v>
       </c>
       <c r="R9" t="n">
-        <v>1769.119480285086</v>
+        <v>1769.119480285085</v>
       </c>
       <c r="S9" t="n">
-        <v>1769.119480285086</v>
+        <v>1630.554864058088</v>
       </c>
       <c r="T9" t="n">
-        <v>1574.495968838238</v>
+        <v>1435.93135261124</v>
       </c>
       <c r="U9" t="n">
-        <v>1346.39579589336</v>
+        <v>1207.831179666362</v>
       </c>
       <c r="V9" t="n">
-        <v>1111.243687661618</v>
+        <v>972.6790714346198</v>
       </c>
       <c r="W9" t="n">
-        <v>939.0007464797955</v>
+        <v>718.4417147064182</v>
       </c>
       <c r="X9" t="n">
-        <v>731.1492462742626</v>
+        <v>510.5902145008854</v>
       </c>
       <c r="Y9" t="n">
-        <v>731.1492462742626</v>
+        <v>302.8299157359315</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212.4557775891288</v>
+        <v>44.34100425941061</v>
       </c>
       <c r="C10" t="n">
-        <v>212.4557775891288</v>
+        <v>44.34100425941061</v>
       </c>
       <c r="D10" t="n">
-        <v>212.4557775891288</v>
+        <v>44.34100425941061</v>
       </c>
       <c r="E10" t="n">
-        <v>212.4557775891288</v>
+        <v>44.34100425941061</v>
       </c>
       <c r="F10" t="n">
-        <v>212.4557775891288</v>
+        <v>44.34100425941061</v>
       </c>
       <c r="G10" t="n">
-        <v>44.34100425941066</v>
+        <v>44.34100425941061</v>
       </c>
       <c r="H10" t="n">
-        <v>44.34100425941066</v>
+        <v>44.34100425941061</v>
       </c>
       <c r="I10" t="n">
-        <v>44.34100425941066</v>
+        <v>44.34100425941061</v>
       </c>
       <c r="J10" t="n">
-        <v>44.34100425941066</v>
+        <v>44.34100425941061</v>
       </c>
       <c r="K10" t="n">
-        <v>95.74470838016751</v>
+        <v>95.74470838016738</v>
       </c>
       <c r="L10" t="n">
-        <v>191.4295496810362</v>
+        <v>191.429549681036</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5740818422662</v>
+        <v>295.5740818422657</v>
       </c>
       <c r="N10" t="n">
-        <v>405.099815709125</v>
+        <v>405.0998157091244</v>
       </c>
       <c r="O10" t="n">
-        <v>485.9514692712731</v>
+        <v>485.9514692712725</v>
       </c>
       <c r="P10" t="n">
-        <v>536.072055313974</v>
+        <v>536.0720553139734</v>
       </c>
       <c r="Q10" t="n">
-        <v>536.072055313974</v>
+        <v>536.0720553139734</v>
       </c>
       <c r="R10" t="n">
-        <v>536.072055313974</v>
+        <v>536.0720553139734</v>
       </c>
       <c r="S10" t="n">
-        <v>337.2072378462009</v>
+        <v>337.2072378462001</v>
       </c>
       <c r="T10" t="n">
-        <v>337.2072378462009</v>
+        <v>337.2072378462001</v>
       </c>
       <c r="U10" t="n">
-        <v>337.2072378462009</v>
+        <v>48.0819016970562</v>
       </c>
       <c r="V10" t="n">
-        <v>337.2072378462009</v>
+        <v>48.0819016970562</v>
       </c>
       <c r="W10" t="n">
-        <v>212.4557775891288</v>
+        <v>48.0819016970562</v>
       </c>
       <c r="X10" t="n">
-        <v>212.4557775891288</v>
+        <v>48.0819016970562</v>
       </c>
       <c r="Y10" t="n">
-        <v>212.4557775891288</v>
+        <v>48.0819016970562</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1838.25898440369</v>
+        <v>1485.490329133574</v>
       </c>
       <c r="C11" t="n">
-        <v>1469.296467463278</v>
+        <v>1116.527812193163</v>
       </c>
       <c r="D11" t="n">
-        <v>1313.318115177623</v>
+        <v>1116.527812193163</v>
       </c>
       <c r="E11" t="n">
-        <v>927.5298625793782</v>
+        <v>805.8206670501952</v>
       </c>
       <c r="F11" t="n">
-        <v>516.5439577897707</v>
+        <v>394.8347622605876</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9281932309162</v>
+        <v>394.8347622605876</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.4060796706893</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656967</v>
+        <v>695.1615405656963</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625332</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
         <v>1828.956123087832</v>
@@ -5066,25 +5066,25 @@
         <v>3876.883295796039</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345381</v>
+        <v>3776.99935034538</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926745</v>
+        <v>3573.020743926744</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048274</v>
+        <v>3319.526802048273</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704703</v>
+        <v>2988.463914704702</v>
       </c>
       <c r="W11" t="n">
-        <v>2988.463914704703</v>
+        <v>2635.695259434588</v>
       </c>
       <c r="X11" t="n">
-        <v>2614.998156443623</v>
+        <v>2262.229501173508</v>
       </c>
       <c r="Y11" t="n">
-        <v>2224.858824467811</v>
+        <v>1872.090169197696</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870415</v>
+        <v>193.8410919870414</v>
       </c>
       <c r="K12" t="n">
         <v>470.776996404666</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929928</v>
+        <v>889.4740370626179</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749521</v>
+        <v>1397.430603019146</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450732</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.5625941847336</v>
+        <v>394.3869424262209</v>
       </c>
       <c r="C13" t="n">
-        <v>778.6264112568267</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="D13" t="n">
-        <v>628.5097718444908</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="E13" t="n">
-        <v>480.5966782620978</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="F13" t="n">
-        <v>480.5966782620978</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="G13" t="n">
-        <v>313.0986950732861</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.855221875865</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648143</v>
+        <v>364.169024664815</v>
       </c>
       <c r="L13" t="n">
-        <v>710.578865434481</v>
+        <v>710.5788654344819</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1086.208595376941</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336949</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1786.049800818666</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010723</v>
+        <v>2042.940349010724</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742809</v>
+        <v>2137.36296874281</v>
       </c>
       <c r="R13" t="n">
-        <v>2122.094847299368</v>
+        <v>2056.743466925585</v>
       </c>
       <c r="S13" t="n">
-        <v>2122.094847299368</v>
+        <v>1868.627619458881</v>
       </c>
       <c r="T13" t="n">
-        <v>2122.094847299368</v>
+        <v>1647.736286893321</v>
       </c>
       <c r="U13" t="n">
-        <v>2122.094847299368</v>
+        <v>1358.644593842772</v>
       </c>
       <c r="V13" t="n">
-        <v>1867.410359093481</v>
+        <v>1103.960105636885</v>
       </c>
       <c r="W13" t="n">
-        <v>1577.993189056521</v>
+        <v>814.542935599924</v>
       </c>
       <c r="X13" t="n">
-        <v>1350.003638158503</v>
+        <v>796.8279863999907</v>
       </c>
       <c r="Y13" t="n">
-        <v>1129.211059014973</v>
+        <v>576.0354072564605</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1026.887310050511</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>962.635730781619</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,13 +5689,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.284195611859</v>
+        <v>720.3848083708527</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400704</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048583</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>594.8179559048583</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>594.8179559048583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138403</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703102</v>
       </c>
     </row>
     <row r="23">
@@ -5981,25 +5981,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6011,19 +6011,19 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852888</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>119.2902967703784</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926974</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y25" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="26">
@@ -6215,34 +6215,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111726</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075819</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876696</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876696</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D28" t="n">
-        <v>430.7826650753339</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036841</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,13 +6382,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614395</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179093</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,37 +6476,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438179</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536378</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570815</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580258</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580258</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947397</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.60190374151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.18473370455</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>119.2902967703794</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969311</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036841</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2277.908814167929</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2058.30734919087</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1769.232122535068</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1251.82540160009</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y34" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="35">
@@ -6923,52 +6923,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123002</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803936</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803936</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438179</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D37" t="n">
-        <v>241.7297566303649</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797183</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797183</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854705</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648818</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7166,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7175,16 +7175,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745235</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121639</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797742</v>
@@ -7348,7 +7348,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138406</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7406,16 +7406,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7424,13 +7424,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>562.8579153358626</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797186</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
@@ -7664,10 +7664,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,16 +7679,16 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793924</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348531</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>113.9333885650331</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
         <v>93.81666304797186</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>200.264472857884</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>74.33029638072395</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927372</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>64.69786657004572</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920368</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.171855681103</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.44677382459425</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856774</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>32.89260457059957</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>53.40527886852281</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>24.63391537253629</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823184</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>36.51445555167197</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016527</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.26526345295035</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>25.74504007796094</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823122</v>
       </c>
       <c r="E28" t="n">
-        <v>98.55338150863585</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823152</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>110.0033420516666</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>13.66255928343736</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.6085800303787</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>46.45968844823167</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>63.36835372228795</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823147</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>72.11969353038603</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,16 +26023,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.26526345294992</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>911450.5354314193</v>
+        <v>911450.535431419</v>
       </c>
     </row>
     <row r="6">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>431046.9291787488</v>
+      </c>
+      <c r="C2" t="n">
         <v>431046.9291787489</v>
       </c>
-      <c r="C2" t="n">
-        <v>431046.9291787488</v>
-      </c>
       <c r="D2" t="n">
-        <v>431046.9291787485</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="E2" t="n">
         <v>384609.3532440581</v>
       </c>
       <c r="F2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="H2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="I2" t="n">
         <v>423751.9648372532</v>
@@ -26338,16 +26338,16 @@
         <v>423751.9648372532</v>
       </c>
       <c r="K2" t="n">
+        <v>423751.964837253</v>
+      </c>
+      <c r="L2" t="n">
         <v>423751.9648372532</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>423751.9648372531</v>
       </c>
-      <c r="M2" t="n">
-        <v>423751.9648372532</v>
-      </c>
       <c r="N2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="O2" t="n">
         <v>423751.964837253</v>
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208455</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861774</v>
+        <v>392510.2442861775</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603264308</v>
+        <v>12262.85603264247</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.9567674501</v>
+        <v>395943.9567674506</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704281</v>
+        <v>189308.268770428</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.385279605923532e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.229999365320814e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487731</v>
+        <v>91259.95686487775</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.447349949909</v>
+        <v>3074.447349949735</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.2608931118</v>
+        <v>103409.260893112</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.5741320235</v>
+        <v>49839.57413202344</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>170817.8827607418</v>
+        <v>170817.882760742</v>
       </c>
       <c r="E4" t="n">
         <v>14721.27748222082</v>
       </c>
       <c r="F4" t="n">
+        <v>14826.69604186738</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14826.69604186737</v>
+      </c>
+      <c r="H4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>14826.69604186736</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14826.69604186725</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14826.69604186732</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
+        <v>14826.69604186737</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14826.69604186736</v>
+      </c>
+      <c r="M4" t="n">
         <v>14826.69604186738</v>
       </c>
-      <c r="L4" t="n">
-        <v>14826.6960418674</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14826.69604186744</v>
-      </c>
       <c r="N4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186742</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86153.75444404171</v>
+        <v>86153.75444404167</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738573</v>
+        <v>85137.48506738571</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26525,43 +26525,43 @@
         <v>-220865.3870521986</v>
       </c>
       <c r="D6" t="n">
-        <v>161812.4359413219</v>
+        <v>161812.4359413225</v>
       </c>
       <c r="E6" t="n">
-        <v>-111193.3660729986</v>
+        <v>-111414.4973869737</v>
       </c>
       <c r="F6" t="n">
-        <v>118494.4702010505</v>
+        <v>118459.7322756151</v>
       </c>
       <c r="G6" t="n">
-        <v>307802.7389714788</v>
+        <v>307768.0010460428</v>
       </c>
       <c r="H6" t="n">
-        <v>307802.7389714786</v>
+        <v>307768.001046043</v>
       </c>
       <c r="I6" t="n">
-        <v>307802.7389714787</v>
+        <v>307768.001046043</v>
       </c>
       <c r="J6" t="n">
-        <v>258737.7942429341</v>
+        <v>258703.0563174983</v>
       </c>
       <c r="K6" t="n">
-        <v>216542.7821066014</v>
+        <v>216508.0441811651</v>
       </c>
       <c r="L6" t="n">
-        <v>304728.2916215287</v>
+        <v>304693.5536960932</v>
       </c>
       <c r="M6" t="n">
-        <v>204393.4780783668</v>
+        <v>204358.7401529309</v>
       </c>
       <c r="N6" t="n">
-        <v>257963.1648394551</v>
+        <v>257928.4269140196</v>
       </c>
       <c r="O6" t="n">
-        <v>307802.7389714785</v>
+        <v>307768.0010460428</v>
       </c>
       <c r="P6" t="n">
-        <v>307802.7389714785</v>
+        <v>307768.0010460429</v>
       </c>
     </row>
   </sheetData>
@@ -26713,13 +26713,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.090792417868801e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.537499206651018e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.319475657867172e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>863.6234498573216</v>
+        <v>863.6234498573211</v>
       </c>
       <c r="E3" t="n">
         <v>1202.241237214951</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261633</v>
       </c>
       <c r="D4" t="n">
-        <v>554.2625532426332</v>
+        <v>554.2625532426326</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490099</v>
+        <v>969.2208239490096</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.537499206651018e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26963,19 +26963,19 @@
         <v>305.2407236247794</v>
       </c>
       <c r="D3" t="n">
-        <v>9.912785319637464</v>
+        <v>9.91278531963701</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6177873576295</v>
+        <v>338.6177873576299</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267227</v>
+        <v>165.7342631267225</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.5893695598433</v>
       </c>
       <c r="D4" t="n">
-        <v>12.14759651647</v>
+        <v>12.14759651646931</v>
       </c>
       <c r="E4" t="n">
-        <v>414.9582707063767</v>
+        <v>414.958270706377</v>
       </c>
       <c r="F4" t="n">
         <v>203.4874641506385</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598429</v>
+        <v>354.5893695598433</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651647</v>
+        <v>12.14759651646931</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063765</v>
+        <v>414.958270706377</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506387</v>
+        <v>203.4874641506385</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.537499206651018e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.5893695598433</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651647</v>
+        <v>12.14759651646931</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063767</v>
+        <v>414.958270706377</v>
       </c>
       <c r="N4" t="n">
         <v>203.4874641506385</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.7408567341078</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059417</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>90.65887400239174</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871033</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038149</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>73.79354210223586</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681157</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>45.87414305599188</v>
+        <v>38.33818124377091</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715741</v>
+        <v>18.24739803715747</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
         <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
-        <v>98.71403242334966</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27591,7 +27591,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390158</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>267.138779352533</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>226.7285614325598</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>82.51792709923174</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>71.30196035546899</v>
       </c>
     </row>
     <row r="7">
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>77.07210304633175</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>35.45192755253842</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>241.4864877240675</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.918686916365</v>
       </c>
       <c r="I8" t="n">
-        <v>76.62727429151386</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>129.9052178731852</v>
       </c>
       <c r="T8" t="n">
-        <v>207.8978127731749</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0679046626562</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>54.32566970118353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27932,25 +27932,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>168.7444462563271</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4859120069138</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>35.56536036433985</v>
+        <v>35.56536036433989</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1789700647269</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27992,13 +27992,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>81.17447139091556</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>176.1284917186682</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.433625596421</v>
       </c>
       <c r="H10" t="n">
         <v>148.3808817867763</v>
@@ -28032,7 +28032,7 @@
         <v>108.6165999743399</v>
       </c>
       <c r="J10" t="n">
-        <v>16.89051046332416</v>
+        <v>16.89051046332422</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.09786070099028</v>
+        <v>21.09786070099037</v>
       </c>
       <c r="R10" t="n">
         <v>107.2691031313611</v>
@@ -28065,13 +28065,13 @@
         <v>221.2914415359382</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340827876525</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>163.0190526820897</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-2.182787284255028e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-7.032208304403594e-13</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -29007,7 +29007,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>-8.15703060652595e-12</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>-8.30056023914949e-13</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29703,7 +29703,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-7.032208304403594e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.537499206651018e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.537499206651018e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30037,13 +30037,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.537499206651018e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.537499206651018e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.567685739403953e-12</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30463,10 +30463,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30754,7 +30754,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471853064753049</v>
+        <v>3.471853064753047</v>
       </c>
       <c r="H8" t="n">
-        <v>35.55611519940217</v>
+        <v>35.55611519940215</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8486152788921</v>
+        <v>133.848615278892</v>
       </c>
       <c r="J8" t="n">
-        <v>294.6691890545844</v>
+        <v>294.6691890545842</v>
       </c>
       <c r="K8" t="n">
-        <v>441.632729285581</v>
+        <v>441.6327292855808</v>
       </c>
       <c r="L8" t="n">
-        <v>547.8844525160173</v>
+        <v>547.8844525160169</v>
       </c>
       <c r="M8" t="n">
-        <v>609.6270194563192</v>
+        <v>609.627019456319</v>
       </c>
       <c r="N8" t="n">
-        <v>619.491421976549</v>
+        <v>619.4914219765486</v>
       </c>
       <c r="O8" t="n">
-        <v>584.9681830639107</v>
+        <v>584.9681830639104</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278198</v>
+        <v>499.2568105278195</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9210726463511</v>
+        <v>374.9210726463509</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0887900787939</v>
+        <v>218.0887900787938</v>
       </c>
       <c r="S8" t="n">
-        <v>79.11485171306018</v>
+        <v>79.11485171306015</v>
       </c>
       <c r="T8" t="n">
-        <v>15.19803679095648</v>
+        <v>15.19803679095647</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777482451802439</v>
+        <v>0.2777482451802437</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.85760515629688</v>
+        <v>1.857605156296879</v>
       </c>
       <c r="H9" t="n">
-        <v>17.9405550621304</v>
+        <v>17.94055506213039</v>
       </c>
       <c r="I9" t="n">
-        <v>63.95701963566015</v>
+        <v>63.95701963566011</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5029503148733</v>
+        <v>175.5029503148732</v>
       </c>
       <c r="K9" t="n">
-        <v>299.9624957867642</v>
+        <v>299.9624957867641</v>
       </c>
       <c r="L9" t="n">
-        <v>403.3365932564784</v>
+        <v>403.3365932564782</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722402</v>
+        <v>470.6747801722399</v>
       </c>
       <c r="N9" t="n">
-        <v>483.1321410668804</v>
+        <v>483.1321410668801</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510389</v>
+        <v>441.9715215510387</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7211109423403</v>
+        <v>354.7211109423401</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230895</v>
+        <v>237.1216687230894</v>
       </c>
       <c r="R9" t="n">
         <v>115.3344675111344</v>
       </c>
       <c r="S9" t="n">
-        <v>34.50420103911089</v>
+        <v>34.50420103911087</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442248</v>
+        <v>7.487452362442244</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222108655458475</v>
+        <v>0.1222108655458474</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557353762037793</v>
+        <v>1.557353762037792</v>
       </c>
       <c r="H10" t="n">
-        <v>13.8462907206633</v>
+        <v>13.84629072066329</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291836</v>
+        <v>46.83387495291834</v>
       </c>
       <c r="J10" t="n">
         <v>110.1049109760719</v>
@@ -31686,34 +31686,34 @@
         <v>180.9361916258453</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311306006</v>
+        <v>231.5360311306005</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801605</v>
+        <v>244.1222810801604</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3175988762017</v>
+        <v>238.3175988762016</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833056</v>
+        <v>220.1248753833055</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3548586377344</v>
+        <v>188.3548586377343</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4071409284556</v>
+        <v>130.4071409284555</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580838</v>
+        <v>70.02428824580834</v>
       </c>
       <c r="S10" t="n">
-        <v>27.1404287438768</v>
+        <v>27.14042874387679</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343295</v>
+        <v>6.654147892343292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08494656883842516</v>
+        <v>0.08494656883842512</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,13 +31844,13 @@
         <v>417.5746757598383</v>
       </c>
       <c r="L12" t="n">
-        <v>171.3336650206084</v>
+        <v>561.4806834747751</v>
       </c>
       <c r="M12" t="n">
         <v>655.2214742821483</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340509</v>
+        <v>267.5398078833307</v>
       </c>
       <c r="O12" t="n">
         <v>615.2639659924477</v>
@@ -31862,7 +31862,7 @@
         <v>330.0946129047542</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
         <v>48.03293999627655</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>616.5397119226058</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>650.5350891770663</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>150.7833302198378</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,37 +33260,37 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33500,34 +33500,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338212</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33734,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860832</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33971,37 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.410447117911</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4622569139914</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278981</v>
+        <v>113.6232845278979</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782406005</v>
+        <v>221.5428782406002</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460301</v>
+        <v>312.1180375460297</v>
       </c>
       <c r="M8" t="n">
-        <v>379.2807862290465</v>
+        <v>379.2807862290463</v>
       </c>
       <c r="N8" t="n">
-        <v>390.078358379958</v>
+        <v>390.0783583799577</v>
       </c>
       <c r="O8" t="n">
-        <v>354.869971642224</v>
+        <v>354.8699716422236</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725502</v>
+        <v>268.0238147725499</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6153827719016</v>
+        <v>152.6153827719014</v>
       </c>
       <c r="R8" t="n">
-        <v>2.503252264661796</v>
+        <v>2.503252264661654</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820659</v>
+        <v>48.66532364820648</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1210568124052</v>
+        <v>162.1210568124051</v>
       </c>
       <c r="L9" t="n">
-        <v>264.7822134766042</v>
+        <v>264.782213476604</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502219</v>
+        <v>328.5407462502216</v>
       </c>
       <c r="N9" t="n">
-        <v>351.790428983547</v>
+        <v>351.7904289835468</v>
       </c>
       <c r="O9" t="n">
-        <v>299.3752771065945</v>
+        <v>299.3752771065942</v>
       </c>
       <c r="P9" t="n">
-        <v>220.7467035280101</v>
+        <v>220.7467035280098</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.13989463706801</v>
+        <v>97.1398946370679</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345530996</v>
+        <v>51.92293345530987</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936235</v>
+        <v>96.65135484936221</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1964971325555</v>
+        <v>105.1964971325554</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6320544109685</v>
+        <v>110.6320544109684</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146279</v>
+        <v>81.66833693146268</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858681</v>
+        <v>50.62685458858672</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,13 +35492,13 @@
         <v>279.7332367854793</v>
       </c>
       <c r="L12" t="n">
-        <v>32.77928524073421</v>
+        <v>422.9263036949009</v>
       </c>
       <c r="M12" t="n">
         <v>513.0874403601299</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507176</v>
+        <v>136.1980957999974</v>
       </c>
       <c r="O12" t="n">
         <v>472.6677215480032</v>
@@ -35510,7 +35510,7 @@
         <v>190.1128388187327</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655353</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>519.193377093733</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>485.5616452121058</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>23.94570355317105</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899056</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1903400640649</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394708</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>322.6208179396324</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
